--- a/biology/Histoire de la zoologie et de la botanique/Eugen_Johann_Christoph_Esper/Eugen_Johann_Christoph_Esper.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Eugen_Johann_Christoph_Esper/Eugen_Johann_Christoph_Esper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugen ou Eugenius Johann Christoph Esper est un naturaliste allemand, né le 2 juin 1742 à Wunsiedel en principauté de Bayreuth et mort le 27 juillet 1810 à Erlangen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugen et son frère Friedrich sont très tôt sensibilisés à l’histoire naturelle par leur père, Friedrich Lorenz Esper, botaniste amateur. Il se tourne d’abord vers des études de théologie mais il s’oriente bientôt vers l’histoire naturelle notamment grâce à son professeur de botanique Casimir Christoph Schmidel (1718-1792).
 Il obtient son doctorat de philosophie à l’université d'Erlangen en 1781 avec une thèse intitulée De varietatibus specierum in naturale productis. L’année suivante, il commence à y enseigner d’abord comme professeur extraordinaire, fonction dotée de maigres émoluments, puis en 1797 comme professeur de philosophie. Il y dirige le département d’histoire naturelle à partir de 1805, les collections de l’université s’enrichissent rapidement grâce à son action de minéraux, d’oiseaux, de plantes, de coquillages et d’insectes...
@@ -546,7 +560,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hermann Hacker (1998). Die Typen der von E. J. Ch. Esper (1742-1810) in seinem "Die Schmetterlinge in Abbildungen nach der Natur" beschriebenen Noctuoidea (Lepidoptera), Esperiana. Buchreihe zur Entomologie, 6 (1) : [24 p.].  (ISBN 3-9802644-5-9)</t>
         </is>
